--- a/console/IOT/IOT-Core/物联网中心-控制台翻译-20190918.xlsx
+++ b/console/IOT/IOT-Core/物联网中心-控制台翻译-20190918.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushaoqian/Desktop/work/iot/code/ConsoleContent/console/IOT/IOT-Core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2FB8406-E5AC-2547-983B-584B60FB34B3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E763841B-1F1E-DC47-9F65-F9160E9D7D43}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45480" yWindow="5880" windowWidth="26780" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
